--- a/UvA projects/Thesis/MSc/ascm/다시 2/divided/gdp rmspe.xlsx
+++ b/UvA projects/Thesis/MSc/ascm/다시 2/divided/gdp rmspe.xlsx
@@ -426,10 +426,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E2">
-        <v>52716342652.43063</v>
+        <v>181014945870.1745</v>
       </c>
       <c r="F2">
-        <v>673214774550.2496</v>
+        <v>544916171332.5059</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,10 +446,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E3">
-        <v>133325590225.4639</v>
+        <v>208811630910.3656</v>
       </c>
       <c r="F3">
-        <v>592605526977.2163</v>
+        <v>517119486292.3147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,10 +466,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E4">
-        <v>107809117559.1093</v>
+        <v>191317803778.0711</v>
       </c>
       <c r="F4">
-        <v>618121999643.571</v>
+        <v>534613313424.6093</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,10 +486,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E5">
-        <v>95398701640.68253</v>
+        <v>182139533870.4642</v>
       </c>
       <c r="F5">
-        <v>630532415561.9978</v>
+        <v>543791583332.2161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,10 +506,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E6">
-        <v>110004330865.7381</v>
+        <v>202354798593.6417</v>
       </c>
       <c r="F6">
-        <v>615926786336.9423</v>
+        <v>523576318609.0386</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,10 +526,10 @@
         <v>725931117202.6803</v>
       </c>
       <c r="E7">
-        <v>144166023010.4912</v>
+        <v>235183295128.9748</v>
       </c>
       <c r="F7">
-        <v>581765094192.1891</v>
+        <v>490747822073.7055</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,10 +546,10 @@
         <v>820813003647.7365</v>
       </c>
       <c r="E8">
-        <v>153223551861.209</v>
+        <v>257107203191.264</v>
       </c>
       <c r="F8">
-        <v>667589451786.5275</v>
+        <v>563705800456.4724</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,10 +566,10 @@
         <v>990428711523.7565</v>
       </c>
       <c r="E9">
-        <v>197550178015.5353</v>
+        <v>305166082581.8058</v>
       </c>
       <c r="F9">
-        <v>792878533508.2212</v>
+        <v>685262628941.9507</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,10 +586,10 @@
         <v>1282020509407.614</v>
       </c>
       <c r="E10">
-        <v>249999595184.3802</v>
+        <v>386663379193.1193</v>
       </c>
       <c r="F10">
-        <v>1032020914223.234</v>
+        <v>895357130214.4946</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,10 +606,10 @@
         <v>1451750057862.345</v>
       </c>
       <c r="E11">
-        <v>218407554819.0677</v>
+        <v>359600630701.7504</v>
       </c>
       <c r="F11">
-        <v>1233342503043.277</v>
+        <v>1092149427160.594</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,10 +626,10 @@
         <v>1690875090425.366</v>
       </c>
       <c r="E12">
-        <v>336046625647.863</v>
+        <v>466153807512.5784</v>
       </c>
       <c r="F12">
-        <v>1354828464777.503</v>
+        <v>1224721282912.788</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,10 +646,10 @@
         <v>1770054233927.195</v>
       </c>
       <c r="E13">
-        <v>281541765954.1638</v>
+        <v>403840322815.3416</v>
       </c>
       <c r="F13">
-        <v>1488512467973.031</v>
+        <v>1366213911111.854</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,10 +666,10 @@
         <v>2004900497340.857</v>
       </c>
       <c r="E14">
-        <v>259266347262.4091</v>
+        <v>431361287267.25</v>
       </c>
       <c r="F14">
-        <v>1745634150078.448</v>
+        <v>1573539210073.607</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,10 +686,10 @@
         <v>2442696478420.521</v>
       </c>
       <c r="E15">
-        <v>171315093069.6533</v>
+        <v>368815734447.0424</v>
       </c>
       <c r="F15">
-        <v>2271381385350.868</v>
+        <v>2073880743973.479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,10 +706,10 @@
         <v>2952838432090.341</v>
       </c>
       <c r="E16">
-        <v>308773904730.1364</v>
+        <v>495225367232.0063</v>
       </c>
       <c r="F16">
-        <v>2644064527360.205</v>
+        <v>2457613064858.334</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,10 +726,10 @@
         <v>3303181850263.894</v>
       </c>
       <c r="E17">
-        <v>376944711802.8955</v>
+        <v>678631256993.6873</v>
       </c>
       <c r="F17">
-        <v>2926237138460.999</v>
+        <v>2624550593270.207</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,10 +746,10 @@
         <v>2879984188262.2</v>
       </c>
       <c r="E18">
-        <v>527775318721.7615</v>
+        <v>730444332368.5221</v>
       </c>
       <c r="F18">
-        <v>2352208869540.438</v>
+        <v>2149539855893.678</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,10 +766,10 @@
         <v>2777376665977.435</v>
       </c>
       <c r="E19">
-        <v>237238555711.2434</v>
+        <v>464629562663.4842</v>
       </c>
       <c r="F19">
-        <v>2540138110266.192</v>
+        <v>2312747103313.951</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,10 +786,10 @@
         <v>2702069500746.212</v>
       </c>
       <c r="E20">
-        <v>174086566409.9415</v>
+        <v>533654005846.2675</v>
       </c>
       <c r="F20">
-        <v>2527982934336.271</v>
+        <v>2168415494899.944</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,10 +806,10 @@
         <v>2603395491959.083</v>
       </c>
       <c r="E21">
-        <v>310424493957.6359</v>
+        <v>646857818899.6647</v>
       </c>
       <c r="F21">
-        <v>2292970998001.447</v>
+        <v>1956537673059.418</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,10 +826,10 @@
         <v>2677660947369.088</v>
       </c>
       <c r="E22">
-        <v>485028265860.4144</v>
+        <v>901551389108.4209</v>
       </c>
       <c r="F22">
-        <v>2192632681508.674</v>
+        <v>1776109558260.667</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,10 +846,10 @@
         <v>3744041974466.611</v>
       </c>
       <c r="E23">
-        <v>268523964160.3639</v>
+        <v>719119949257.548</v>
       </c>
       <c r="F23">
-        <v>3475518010306.247</v>
+        <v>3024922025209.063</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,10 +866,10 @@
         <v>4631250656846.372</v>
       </c>
       <c r="E24">
-        <v>176900936540.2635</v>
+        <v>634183521065.1498</v>
       </c>
       <c r="F24">
-        <v>4454349720306.108</v>
+        <v>3997067135781.222</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,10 +886,10 @@
         <v>5084288198655.59</v>
       </c>
       <c r="E25">
-        <v>262711700451.1051</v>
+        <v>660727911529.8367</v>
       </c>
       <c r="F25">
-        <v>4821576498204.484</v>
+        <v>4423560287125.753</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,10 +906,10 @@
         <v>5193668896729.199</v>
       </c>
       <c r="E26">
-        <v>385061121070.2668</v>
+        <v>651236011935.8568</v>
       </c>
       <c r="F26">
-        <v>4808607775658.933</v>
+        <v>4542432884793.343</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,10 +926,10 @@
         <v>6498471911158.62</v>
       </c>
       <c r="E27">
-        <v>511483295883.7988</v>
+        <v>762274289114.7867</v>
       </c>
       <c r="F27">
-        <v>5986988615274.821</v>
+        <v>5736197622043.833</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,10 +946,10 @@
         <v>6736015994578.515</v>
       </c>
       <c r="E28">
-        <v>935598836690.7635</v>
+        <v>931692786675.7885</v>
       </c>
       <c r="F28">
-        <v>5800417157887.751</v>
+        <v>5804323207902.727</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,10 +966,10 @@
         <v>7406290275006.518</v>
       </c>
       <c r="E29">
-        <v>1174070501610.991</v>
+        <v>1207037935831.357</v>
       </c>
       <c r="F29">
-        <v>6232219773395.526</v>
+        <v>6199252339175.16</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,10 +986,10 @@
         <v>6761114918561.712</v>
       </c>
       <c r="E30">
-        <v>1624262453129.131</v>
+        <v>1651686054002.373</v>
       </c>
       <c r="F30">
-        <v>5136852465432.581</v>
+        <v>5109428864559.34</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,10 +1006,10 @@
         <v>7161872216278.512</v>
       </c>
       <c r="E31">
-        <v>1848649045685.99</v>
+        <v>2034528722002.723</v>
       </c>
       <c r="F31">
-        <v>5313223170592.521</v>
+        <v>5127343494275.789</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,10 +1026,10 @@
         <v>8296026012678.735</v>
       </c>
       <c r="E32">
-        <v>1850581387063.232</v>
+        <v>1935947751011.391</v>
       </c>
       <c r="F32">
-        <v>6445444625615.503</v>
+        <v>6360078261667.345</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,10 +1046,10 @@
         <v>8431518032299.257</v>
       </c>
       <c r="E33">
-        <v>2269229464172.64</v>
+        <v>2392765644226.721</v>
       </c>
       <c r="F33">
-        <v>6162288568126.617</v>
+        <v>6038752388072.535</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,10 +1066,10 @@
         <v>7733761443399.131</v>
       </c>
       <c r="E34">
-        <v>2706834953068.187</v>
+        <v>2886829787297.075</v>
       </c>
       <c r="F34">
-        <v>5026926490330.943</v>
+        <v>4846931656102.057</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,10 +1086,10 @@
         <v>7969786047468.6</v>
       </c>
       <c r="E35">
-        <v>3243134427301.877</v>
+        <v>3468036431691.055</v>
       </c>
       <c r="F35">
-        <v>4726651620166.723</v>
+        <v>4501749615777.545</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,10 +1106,10 @@
         <v>7925751140105.293</v>
       </c>
       <c r="E36">
-        <v>3520713952226.269</v>
+        <v>3863941910413.729</v>
       </c>
       <c r="F36">
-        <v>4405037187879.024</v>
+        <v>4061809229691.564</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,10 +1126,10 @@
         <v>7276100425846.392</v>
       </c>
       <c r="E37">
-        <v>4157770625256.308</v>
+        <v>4394130557155.896</v>
       </c>
       <c r="F37">
-        <v>3118329800590.083</v>
+        <v>2881969868690.496</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,10 +1146,10 @@
         <v>7393822815819.075</v>
       </c>
       <c r="E38">
-        <v>4639925184607.825</v>
+        <v>5103723542833.994</v>
       </c>
       <c r="F38">
-        <v>2753897631211.25</v>
+        <v>2290099272985.081</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8083838310847.305</v>
       </c>
       <c r="E39">
-        <v>5076051142156.361</v>
+        <v>5602808329430.11</v>
       </c>
       <c r="F39">
-        <v>3007787168690.943</v>
+        <v>2481029981417.194</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,10 +1186,10 @@
         <v>9931880091381.268</v>
       </c>
       <c r="E40">
-        <v>5269192555164.995</v>
+        <v>5854608567957.424</v>
       </c>
       <c r="F40">
-        <v>4662687536216.272</v>
+        <v>4077271523423.844</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,10 +1206,10 @@
         <v>11419026235917.21</v>
       </c>
       <c r="E41">
-        <v>5915728047112.896</v>
+        <v>6479417664993.832</v>
       </c>
       <c r="F41">
-        <v>5503298188804.314</v>
+        <v>4939608570923.379</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,10 +1226,10 @@
         <v>11910846593666.3</v>
       </c>
       <c r="E42">
-        <v>6932726071015.65</v>
+        <v>7555926608865.831</v>
       </c>
       <c r="F42">
-        <v>4978120522650.65</v>
+        <v>4354919984800.47</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,10 +1246,10 @@
         <v>12713924308246.96</v>
       </c>
       <c r="E43">
-        <v>8319420498147.618</v>
+        <v>9126936539920.721</v>
       </c>
       <c r="F43">
-        <v>4394503810099.343</v>
+        <v>3586987768326.24</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,10 +1266,10 @@
         <v>14728760786208.94</v>
       </c>
       <c r="E44">
-        <v>10178518103595.75</v>
+        <v>11651213824859.91</v>
       </c>
       <c r="F44">
-        <v>4550242682613.189</v>
+        <v>3077546961349.029</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,10 +1286,10 @@
         <v>16297628240370.56</v>
       </c>
       <c r="E45">
-        <v>13595099365183.44</v>
+        <v>14780085485635.28</v>
       </c>
       <c r="F45">
-        <v>2702528875187.125</v>
+        <v>1517542754735.281</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,10 +1306,10 @@
         <v>14763782458925.06</v>
       </c>
       <c r="E46">
-        <v>13980771862474.5</v>
+        <v>16081240001761.06</v>
       </c>
       <c r="F46">
-        <v>783010596450.5625</v>
+        <v>-1317457542836.002</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,10 +1326,10 @@
         <v>14557639624574.1</v>
       </c>
       <c r="E47">
-        <v>16074410385982.98</v>
+        <v>18854002343350.86</v>
       </c>
       <c r="F47">
-        <v>-1516770761408.883</v>
+        <v>-4296362718776.76</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,10 +1346,10 @@
         <v>15759494356498.16</v>
       </c>
       <c r="E48">
-        <v>20302065186231.29</v>
+        <v>23042473212004.01</v>
       </c>
       <c r="F48">
-        <v>-4542570829733.125</v>
+        <v>-7282978855505.852</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,10 +1366,10 @@
         <v>14636200267663.12</v>
       </c>
       <c r="E49">
-        <v>23297537549915.34</v>
+        <v>25833253790415.45</v>
       </c>
       <c r="F49">
-        <v>-8661337282252.217</v>
+        <v>-11197053522752.33</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,10 +1386,10 @@
         <v>15299732275660.32</v>
       </c>
       <c r="E50">
-        <v>26941152346814.59</v>
+        <v>29323198791647.42</v>
       </c>
       <c r="F50">
-        <v>-11641420071154.27</v>
+        <v>-14023466515987.1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,10 +1406,10 @@
         <v>15652098620138.47</v>
       </c>
       <c r="E51">
-        <v>29475838688115.27</v>
+        <v>32571988301538.88</v>
       </c>
       <c r="F51">
-        <v>-13823740067976.8</v>
+        <v>-16919889681400.41</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,10 +1426,10 @@
         <v>13551929359932.78</v>
       </c>
       <c r="E52">
-        <v>30823850652912.37</v>
+        <v>34016056726453.58</v>
       </c>
       <c r="F52">
-        <v>-17271921292979.59</v>
+        <v>-20464127366520.8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,10 +1446,10 @@
         <v>13893261055687.42</v>
       </c>
       <c r="E53">
-        <v>30538437971203.18</v>
+        <v>34707406606972.02</v>
       </c>
       <c r="F53">
-        <v>-16645176915515.76</v>
+        <v>-20814145551284.6</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,10 +1466,10 @@
         <v>14765989309258.48</v>
       </c>
       <c r="E54">
-        <v>32619490128155.05</v>
+        <v>37929235926847.93</v>
       </c>
       <c r="F54">
-        <v>-17853500818896.57</v>
+        <v>-23163246617589.45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,10 +1486,10 @@
         <v>15978209845137.49</v>
       </c>
       <c r="E55">
-        <v>37650661739662.66</v>
+        <v>43029141842695.58</v>
       </c>
       <c r="F55">
-        <v>-21672451894525.17</v>
+        <v>-27050931997558.09</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,10 +1506,10 @@
         <v>15689357247344.51</v>
       </c>
       <c r="E56">
-        <v>38340110526077.62</v>
+        <v>44514407539460.64</v>
       </c>
       <c r="F56">
-        <v>-22650753278733.12</v>
+        <v>-28825050292116.13</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,10 +1526,10 @@
         <v>15291934754441.57</v>
       </c>
       <c r="E57">
-        <v>40168337597015.88</v>
+        <v>45673403645060.24</v>
       </c>
       <c r="F57">
-        <v>-24876402842574.31</v>
+        <v>-30381468890618.67</v>
       </c>
     </row>
   </sheetData>
